--- a/biology/Botanique/Entandrophragma/Entandrophragma.xlsx
+++ b/biology/Botanique/Entandrophragma/Entandrophragma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entandrophragma est un genre de la famille des Meliaceae. Les espèces de ce genre sont des arbres.
-Ces arbres ont une grande importance commerciale pour leur bois de qualité plus ou moins rougeâtre et facile à travailler[1]. Ces bois sont proches des acajous mais ont chacun leurs caractéristiques propres, on préfère donc leur donner des noms différents. On trouve notamment dans ce genre le tiama, le sapelli et le sipo.
+Ces arbres ont une grande importance commerciale pour leur bois de qualité plus ou moins rougeâtre et facile à travailler. Ces bois sont proches des acajous mais ont chacun leurs caractéristiques propres, on préfère donc leur donner des noms différents. On trouve notamment dans ce genre le tiama, le sapelli et le sipo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Listes d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (18 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (18 août 2017) :
 Entandrophragma angolense (Welw.) C. DC.
 Entandrophragma bussei Harms ex Engl.
 Entandrophragma candollei Harms
@@ -526,7 +540,7 @@
 Entandrophragma palustre Staner
 Entandrophragma spicatum (C. DC.) Sprague
 Entandrophragma utile (Dawe &amp; Sprague) Sprague
-Selon GRIN            (18 août 2017)[3] :
+Selon GRIN            (18 août 2017) :
 Entandrophragma angolense (Welw.) C. DC.
 Entandrophragma candollei Harms
 Entandrophragma caudatum (Sprague) Sprague
